--- a/state_results/Rivers/MangawheroatusOhakuneSTP_9521c76765.xlsx
+++ b/state_results/Rivers/MangawheroatusOhakuneSTP_9521c76765.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U231"/>
+  <dimension ref="A1:U251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0565186596999598</v>
+        <v>0.0565207451470674</v>
       </c>
       <c r="H3" t="n">
         <v>1.34</v>
@@ -732,7 +732,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0565186596999598</v>
+        <v>0.0565207451470674</v>
       </c>
       <c r="H4" t="n">
         <v>1.34</v>
@@ -1153,7 +1153,7 @@
         <v>0.00434</v>
       </c>
       <c r="G9" t="n">
-        <v>0.119179499204401</v>
+        <v>0.11917554881734</v>
       </c>
       <c r="H9" t="n">
         <v>3.14149777582329</v>
@@ -1234,7 +1234,7 @@
         <v>0.00434</v>
       </c>
       <c r="G10" t="n">
-        <v>0.119179499204401</v>
+        <v>0.11917554881734</v>
       </c>
       <c r="H10" t="n">
         <v>3.14149777582329</v>
@@ -1550,7 +1550,7 @@
         <v>0.01</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0802692393355261</v>
+        <v>0.080270768663405</v>
       </c>
       <c r="H14" t="n">
         <v>1.34</v>
@@ -1631,7 +1631,7 @@
         <v>0.01</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0802692393355261</v>
+        <v>0.080270768663405</v>
       </c>
       <c r="H15" t="n">
         <v>1.34</v>
@@ -2052,7 +2052,7 @@
         <v>0.00615</v>
       </c>
       <c r="G20" t="n">
-        <v>0.192675041373702</v>
+        <v>0.192674097753753</v>
       </c>
       <c r="H20" t="n">
         <v>3.14149777582329</v>
@@ -2133,7 +2133,7 @@
         <v>0.00615</v>
       </c>
       <c r="G21" t="n">
-        <v>0.192675041373702</v>
+        <v>0.192674097753753</v>
       </c>
       <c r="H21" t="n">
         <v>3.14149777582329</v>
@@ -2449,7 +2449,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0660109188257763</v>
+        <v>0.0660142685058384</v>
       </c>
       <c r="H25" t="n">
         <v>1.34</v>
@@ -2530,7 +2530,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0660109188257763</v>
+        <v>0.0660142685058384</v>
       </c>
       <c r="H26" t="n">
         <v>1.34</v>
@@ -2951,7 +2951,7 @@
         <v>0.0062</v>
       </c>
       <c r="G31" t="n">
-        <v>0.160105755611342</v>
+        <v>0.160105004210272</v>
       </c>
       <c r="H31" t="n">
         <v>3.14149777582329</v>
@@ -3032,7 +3032,7 @@
         <v>0.0062</v>
       </c>
       <c r="G32" t="n">
-        <v>0.160105755611342</v>
+        <v>0.160105004210272</v>
       </c>
       <c r="H32" t="n">
         <v>3.14149777582329</v>
@@ -3579,7 +3579,7 @@
         <v>0.022</v>
       </c>
       <c r="G39" t="n">
-        <v>0.103812091377732</v>
+        <v>0.103818517598958</v>
       </c>
       <c r="H39" t="n">
         <v>1.66</v>
@@ -3656,7 +3656,7 @@
         <v>0.022</v>
       </c>
       <c r="G40" t="n">
-        <v>0.103812091377732</v>
+        <v>0.103818517598958</v>
       </c>
       <c r="H40" t="n">
         <v>1.66</v>
@@ -3899,7 +3899,7 @@
         <v>0.01</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0656423062147978</v>
+        <v>0.065645597128543</v>
       </c>
       <c r="H43" t="n">
         <v>1.34</v>
@@ -3980,7 +3980,7 @@
         <v>0.01</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0656423062147978</v>
+        <v>0.065645597128543</v>
       </c>
       <c r="H44" t="n">
         <v>1.34</v>
@@ -4401,7 +4401,7 @@
         <v>0.00478</v>
       </c>
       <c r="G49" t="n">
-        <v>0.152702652224553</v>
+        <v>0.152701880551426</v>
       </c>
       <c r="H49" t="n">
         <v>3.14149777582329</v>
@@ -4482,7 +4482,7 @@
         <v>0.00478</v>
       </c>
       <c r="G50" t="n">
-        <v>0.152702652224553</v>
+        <v>0.152701880551426</v>
       </c>
       <c r="H50" t="n">
         <v>3.14149777582329</v>
@@ -5029,7 +5029,7 @@
         <v>0.022</v>
       </c>
       <c r="G57" t="n">
-        <v>0.101745212581631</v>
+        <v>0.101751526062135</v>
       </c>
       <c r="H57" t="n">
         <v>1.66</v>
@@ -5106,7 +5106,7 @@
         <v>0.022</v>
       </c>
       <c r="G58" t="n">
-        <v>0.101745212581631</v>
+        <v>0.101751526062135</v>
       </c>
       <c r="H58" t="n">
         <v>1.66</v>
@@ -5349,7 +5349,7 @@
         <v>0.0125</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0646982014507724</v>
+        <v>0.0647002490771332</v>
       </c>
       <c r="H61" t="n">
         <v>1.34</v>
@@ -5430,7 +5430,7 @@
         <v>0.0125</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0646982014507724</v>
+        <v>0.0647002490771332</v>
       </c>
       <c r="H62" t="n">
         <v>1.34</v>
@@ -5851,7 +5851,7 @@
         <v>0.0043</v>
       </c>
       <c r="G67" t="n">
-        <v>0.142524292166015</v>
+        <v>0.142523922415518</v>
       </c>
       <c r="H67" t="n">
         <v>3.14149777582329</v>
@@ -5932,7 +5932,7 @@
         <v>0.0043</v>
       </c>
       <c r="G68" t="n">
-        <v>0.142524292166015</v>
+        <v>0.142523922415518</v>
       </c>
       <c r="H68" t="n">
         <v>3.14149777582329</v>
@@ -6479,7 +6479,7 @@
         <v>0.02</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0921806399509133</v>
+        <v>0.0921868445783046</v>
       </c>
       <c r="H75" t="n">
         <v>1.66</v>
@@ -6556,7 +6556,7 @@
         <v>0.02</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0921806399509133</v>
+        <v>0.0921868445783046</v>
       </c>
       <c r="H76" t="n">
         <v>1.66</v>
@@ -6799,7 +6799,7 @@
         <v>0.014</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0405168760024542</v>
+        <v>0.0405188889232835</v>
       </c>
       <c r="H79" t="n">
         <v>0.713</v>
@@ -6880,7 +6880,7 @@
         <v>0.014</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0405168760024542</v>
+        <v>0.0405188889232835</v>
       </c>
       <c r="H80" t="n">
         <v>0.713</v>
@@ -7301,7 +7301,7 @@
         <v>0.00307</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0859314617494026</v>
+        <v>0.08593623284469611</v>
       </c>
       <c r="H85" t="n">
         <v>2.33231755387307</v>
@@ -7382,7 +7382,7 @@
         <v>0.00307</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0859314617494026</v>
+        <v>0.08593623284469611</v>
       </c>
       <c r="H86" t="n">
         <v>2.33231755387307</v>
@@ -7929,7 +7929,7 @@
         <v>0.02</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0613640189347962</v>
+        <v>0.0613701183990113</v>
       </c>
       <c r="H93" t="n">
         <v>1.084</v>
@@ -8006,7 +8006,7 @@
         <v>0.02</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0613640189347962</v>
+        <v>0.0613701183990113</v>
       </c>
       <c r="H94" t="n">
         <v>1.084</v>
@@ -8249,7 +8249,7 @@
         <v>0.013</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0135338251549966</v>
+        <v>0.0135358380758259</v>
       </c>
       <c r="H97" t="n">
         <v>0.054</v>
@@ -8330,7 +8330,7 @@
         <v>0.013</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0135338251549966</v>
+        <v>0.0135358380758259</v>
       </c>
       <c r="H98" t="n">
         <v>0.054</v>
@@ -8825,10 +8825,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.00102</v>
+        <v>0.00109</v>
       </c>
       <c r="G104" t="n">
-        <v>0.008299730629236699</v>
+        <v>0.0083161424915251</v>
       </c>
       <c r="H104" t="n">
         <v>0.196095795894481</v>
@@ -8839,7 +8839,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.00076</v>
+        <v>0.00082</v>
       </c>
       <c r="M104" t="n">
         <v>0.008160000000000001</v>
@@ -8906,10 +8906,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.00102</v>
+        <v>0.00109</v>
       </c>
       <c r="G105" t="n">
-        <v>0.008299730629236699</v>
+        <v>0.0083161424915251</v>
       </c>
       <c r="H105" t="n">
         <v>0.196095795894481</v>
@@ -8920,7 +8920,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.00076</v>
+        <v>0.00082</v>
       </c>
       <c r="M105" t="n">
         <v>0.008160000000000001</v>
@@ -9938,7 +9938,7 @@
         <v>92</v>
       </c>
       <c r="G118" t="n">
-        <v>363.097519199949</v>
+        <v>363.092759879775</v>
       </c>
       <c r="H118" t="n">
         <v>7945</v>
@@ -10023,7 +10023,7 @@
         <v>92</v>
       </c>
       <c r="G119" t="n">
-        <v>363.097519199949</v>
+        <v>363.092759879775</v>
       </c>
       <c r="H119" t="n">
         <v>7945</v>
@@ -10108,7 +10108,7 @@
         <v>92</v>
       </c>
       <c r="G120" t="n">
-        <v>363.097519199949</v>
+        <v>363.092759879775</v>
       </c>
       <c r="H120" t="n">
         <v>7945</v>
@@ -10193,7 +10193,7 @@
         <v>92</v>
       </c>
       <c r="G121" t="n">
-        <v>363.097519199949</v>
+        <v>363.092759879775</v>
       </c>
       <c r="H121" t="n">
         <v>7945</v>
@@ -10352,10 +10352,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.00103</v>
+        <v>0.00109</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0024705727798955</v>
+        <v>0.0025065247920946</v>
       </c>
       <c r="H123" t="n">
         <v>0.0328997746913489</v>
@@ -10366,10 +10366,10 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.00076</v>
+        <v>0.00082</v>
       </c>
       <c r="M123" t="n">
-        <v>0.00264</v>
+        <v>0.00271</v>
       </c>
       <c r="N123" t="n">
         <v>0.0081</v>
@@ -10433,10 +10433,10 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.00103</v>
+        <v>0.00109</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0024705727798955</v>
+        <v>0.0025065247920946</v>
       </c>
       <c r="H124" t="n">
         <v>0.0328997746913489</v>
@@ -10447,10 +10447,10 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.00076</v>
+        <v>0.00082</v>
       </c>
       <c r="M124" t="n">
-        <v>0.00264</v>
+        <v>0.00271</v>
       </c>
       <c r="N124" t="n">
         <v>0.0081</v>
@@ -11465,7 +11465,7 @@
         <v>88.5</v>
       </c>
       <c r="G137" t="n">
-        <v>359.530852533282</v>
+        <v>359.526093213108</v>
       </c>
       <c r="H137" t="n">
         <v>7945</v>
@@ -11550,7 +11550,7 @@
         <v>88.5</v>
       </c>
       <c r="G138" t="n">
-        <v>359.530852533282</v>
+        <v>359.526093213108</v>
       </c>
       <c r="H138" t="n">
         <v>7945</v>
@@ -11635,7 +11635,7 @@
         <v>88.5</v>
       </c>
       <c r="G139" t="n">
-        <v>359.530852533282</v>
+        <v>359.526093213108</v>
       </c>
       <c r="H139" t="n">
         <v>7945</v>
@@ -11720,7 +11720,7 @@
         <v>88.5</v>
       </c>
       <c r="G140" t="n">
-        <v>359.530852533282</v>
+        <v>359.526093213108</v>
       </c>
       <c r="H140" t="n">
         <v>7945</v>
@@ -11879,10 +11879,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.00138</v>
+        <v>0.00147</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0028029106477421</v>
+        <v>0.0028695621573703</v>
       </c>
       <c r="H142" t="n">
         <v>0.0328997746913489</v>
@@ -11893,13 +11893,13 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.0011</v>
+        <v>0.00117</v>
       </c>
       <c r="M142" t="n">
-        <v>0.00364</v>
+        <v>0.00377</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0067</v>
+        <v>0.0068</v>
       </c>
       <c r="O142" t="n">
         <v>1805247</v>
@@ -11960,10 +11960,10 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.00138</v>
+        <v>0.00147</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0028029106477421</v>
+        <v>0.0028695621573703</v>
       </c>
       <c r="H143" t="n">
         <v>0.0328997746913489</v>
@@ -11974,13 +11974,13 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
-        <v>0.0011</v>
+        <v>0.00117</v>
       </c>
       <c r="M143" t="n">
-        <v>0.00364</v>
+        <v>0.00377</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0067</v>
+        <v>0.0068</v>
       </c>
       <c r="O143" t="n">
         <v>1805247</v>
@@ -12988,7 +12988,7 @@
         <v>85</v>
       </c>
       <c r="G156" t="n">
-        <v>130.480852533282</v>
+        <v>130.476093213108</v>
       </c>
       <c r="H156" t="n">
         <v>689</v>
@@ -13073,7 +13073,7 @@
         <v>85</v>
       </c>
       <c r="G157" t="n">
-        <v>130.480852533282</v>
+        <v>130.476093213108</v>
       </c>
       <c r="H157" t="n">
         <v>689</v>
@@ -13158,7 +13158,7 @@
         <v>85</v>
       </c>
       <c r="G158" t="n">
-        <v>130.480852533282</v>
+        <v>130.476093213108</v>
       </c>
       <c r="H158" t="n">
         <v>689</v>
@@ -13243,7 +13243,7 @@
         <v>85</v>
       </c>
       <c r="G159" t="n">
-        <v>130.480852533282</v>
+        <v>130.476093213108</v>
       </c>
       <c r="H159" t="n">
         <v>689</v>
@@ -13402,27 +13402,27 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.00176</v>
+        <v>0.00188</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0031879322545487</v>
+        <v>0.0033158628519063</v>
       </c>
       <c r="H161" t="n">
-        <v>0.0144741444421487</v>
+        <v>0.015258285501531</v>
       </c>
       <c r="I161" t="n">
-        <v>0.01191</v>
+        <v>0.01214</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>0.00205</v>
+        <v>0.00217</v>
       </c>
       <c r="M161" t="n">
-        <v>0.00587</v>
+        <v>0.00619</v>
       </c>
       <c r="N161" t="n">
-        <v>0.00784</v>
+        <v>0.00826</v>
       </c>
       <c r="O161" t="n">
         <v>1805247</v>
@@ -13483,27 +13483,27 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.00176</v>
+        <v>0.00188</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0031879322545487</v>
+        <v>0.0033158628519063</v>
       </c>
       <c r="H162" t="n">
-        <v>0.0144741444421487</v>
+        <v>0.015258285501531</v>
       </c>
       <c r="I162" t="n">
-        <v>0.01191</v>
+        <v>0.01214</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.00205</v>
+        <v>0.00217</v>
       </c>
       <c r="M162" t="n">
-        <v>0.00587</v>
+        <v>0.00619</v>
       </c>
       <c r="N162" t="n">
-        <v>0.00784</v>
+        <v>0.00826</v>
       </c>
       <c r="O162" t="n">
         <v>1805247</v>
@@ -14588,7 +14588,7 @@
         <v>78</v>
       </c>
       <c r="G176" t="n">
-        <v>126.900990462892</v>
+        <v>126.889777508457</v>
       </c>
       <c r="H176" t="n">
         <v>580</v>
@@ -14673,7 +14673,7 @@
         <v>78</v>
       </c>
       <c r="G177" t="n">
-        <v>126.900990462892</v>
+        <v>126.889777508457</v>
       </c>
       <c r="H177" t="n">
         <v>580</v>
@@ -14758,7 +14758,7 @@
         <v>78</v>
       </c>
       <c r="G178" t="n">
-        <v>126.900990462892</v>
+        <v>126.889777508457</v>
       </c>
       <c r="H178" t="n">
         <v>580</v>
@@ -14843,7 +14843,7 @@
         <v>78</v>
       </c>
       <c r="G179" t="n">
-        <v>126.900990462892</v>
+        <v>126.889777508457</v>
       </c>
       <c r="H179" t="n">
         <v>580</v>
@@ -15002,10 +15002,10 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.00256</v>
+        <v>0.00267</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0043396500828836</v>
+        <v>0.004471324246586</v>
       </c>
       <c r="H181" t="n">
         <v>0.0423342052599997</v>
@@ -15016,10 +15016,10 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>0.00416</v>
+        <v>0.00439</v>
       </c>
       <c r="M181" t="n">
-        <v>0.00743</v>
+        <v>0.00767</v>
       </c>
       <c r="N181" t="n">
         <v>0.01155</v>
@@ -15083,10 +15083,10 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.00256</v>
+        <v>0.00267</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0043396500828836</v>
+        <v>0.004471324246586</v>
       </c>
       <c r="H182" t="n">
         <v>0.0423342052599997</v>
@@ -15097,10 +15097,10 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
-        <v>0.00416</v>
+        <v>0.00439</v>
       </c>
       <c r="M182" t="n">
-        <v>0.00743</v>
+        <v>0.00767</v>
       </c>
       <c r="N182" t="n">
         <v>0.01155</v>
@@ -16188,7 +16188,7 @@
         <v>78</v>
       </c>
       <c r="G196" t="n">
-        <v>186.607887014616</v>
+        <v>186.596674060181</v>
       </c>
       <c r="H196" t="n">
         <v>3500</v>
@@ -16273,7 +16273,7 @@
         <v>78</v>
       </c>
       <c r="G197" t="n">
-        <v>186.607887014616</v>
+        <v>186.596674060181</v>
       </c>
       <c r="H197" t="n">
         <v>3500</v>
@@ -16358,7 +16358,7 @@
         <v>78</v>
       </c>
       <c r="G198" t="n">
-        <v>186.607887014616</v>
+        <v>186.596674060181</v>
       </c>
       <c r="H198" t="n">
         <v>3500</v>
@@ -16443,7 +16443,7 @@
         <v>78</v>
       </c>
       <c r="G199" t="n">
-        <v>186.607887014616</v>
+        <v>186.596674060181</v>
       </c>
       <c r="H199" t="n">
         <v>3500</v>
@@ -16602,10 +16602,10 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.00314</v>
+        <v>0.00323</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0047534840840105</v>
+        <v>0.0048714538579553</v>
       </c>
       <c r="H201" t="n">
         <v>0.0423342052599997</v>
@@ -16616,10 +16616,10 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
-        <v>0.00426</v>
+        <v>0.00439</v>
       </c>
       <c r="M201" t="n">
-        <v>0.00743</v>
+        <v>0.00767</v>
       </c>
       <c r="N201" t="n">
         <v>0.01155</v>
@@ -16683,10 +16683,10 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.00314</v>
+        <v>0.00323</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0047534840840105</v>
+        <v>0.0048714538579553</v>
       </c>
       <c r="H202" t="n">
         <v>0.0423342052599997</v>
@@ -16697,10 +16697,10 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
-        <v>0.00426</v>
+        <v>0.00439</v>
       </c>
       <c r="M202" t="n">
-        <v>0.00743</v>
+        <v>0.00767</v>
       </c>
       <c r="N202" t="n">
         <v>0.01155</v>
@@ -17788,7 +17788,7 @@
         <v>89.5</v>
       </c>
       <c r="G216" t="n">
-        <v>222.093211980186</v>
+        <v>222.086922460414</v>
       </c>
       <c r="H216" t="n">
         <v>3500</v>
@@ -17873,7 +17873,7 @@
         <v>89.5</v>
       </c>
       <c r="G217" t="n">
-        <v>222.093211980186</v>
+        <v>222.086922460414</v>
       </c>
       <c r="H217" t="n">
         <v>3500</v>
@@ -17958,7 +17958,7 @@
         <v>89.5</v>
       </c>
       <c r="G218" t="n">
-        <v>222.093211980186</v>
+        <v>222.086922460414</v>
       </c>
       <c r="H218" t="n">
         <v>3500</v>
@@ -18043,7 +18043,7 @@
         <v>89.5</v>
       </c>
       <c r="G219" t="n">
-        <v>222.093211980186</v>
+        <v>222.086922460414</v>
       </c>
       <c r="H219" t="n">
         <v>3500</v>
@@ -18202,24 +18202,24 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0.00436</v>
+        <v>0.00447</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0126503315931532</v>
+        <v>0.0127470724232242</v>
       </c>
       <c r="H221" t="n">
         <v>0.411448799788078</v>
       </c>
       <c r="I221" t="n">
-        <v>0.01426</v>
+        <v>0.01481</v>
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
-        <v>0.00641</v>
+        <v>0.00659</v>
       </c>
       <c r="M221" t="n">
-        <v>0.0077</v>
+        <v>0.008109999999999999</v>
       </c>
       <c r="N221" t="n">
         <v>0.01349</v>
@@ -18283,24 +18283,24 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0.00436</v>
+        <v>0.00447</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0126503315931532</v>
+        <v>0.0127470724232242</v>
       </c>
       <c r="H222" t="n">
         <v>0.411448799788078</v>
       </c>
       <c r="I222" t="n">
-        <v>0.01426</v>
+        <v>0.01481</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
-        <v>0.00641</v>
+        <v>0.00659</v>
       </c>
       <c r="M222" t="n">
-        <v>0.0077</v>
+        <v>0.008109999999999999</v>
       </c>
       <c r="N222" t="n">
         <v>0.01349</v>
@@ -19038,6 +19038,1606 @@
         </is>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.4952</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0.58185</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>14</v>
+      </c>
+      <c r="G233" t="n">
+        <v>23.5734042553191</v>
+      </c>
+      <c r="H233" t="n">
+        <v>150</v>
+      </c>
+      <c r="I233" t="n">
+        <v>120.75</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="M233" t="n">
+        <v>32.295</v>
+      </c>
+      <c r="N233" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.0149310344827586</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0.02264</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.0149310344827586</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.02264</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>110</v>
+      </c>
+      <c r="G236" t="n">
+        <v>253.414508667311</v>
+      </c>
+      <c r="H236" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I236" t="n">
+        <v>931.2</v>
+      </c>
+      <c r="J236" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="K236" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="L236" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="M236" t="n">
+        <v>309.16</v>
+      </c>
+      <c r="N236" t="n">
+        <v>740.8200000000001</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>110</v>
+      </c>
+      <c r="G237" t="n">
+        <v>253.414508667311</v>
+      </c>
+      <c r="H237" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I237" t="n">
+        <v>931.2</v>
+      </c>
+      <c r="J237" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="K237" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="L237" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="M237" t="n">
+        <v>309.16</v>
+      </c>
+      <c r="N237" t="n">
+        <v>740.8200000000001</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P237" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>110</v>
+      </c>
+      <c r="G238" t="n">
+        <v>253.414508667311</v>
+      </c>
+      <c r="H238" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I238" t="n">
+        <v>931.2</v>
+      </c>
+      <c r="J238" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="K238" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="L238" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="M238" t="n">
+        <v>309.16</v>
+      </c>
+      <c r="N238" t="n">
+        <v>740.8200000000001</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>110</v>
+      </c>
+      <c r="G239" t="n">
+        <v>253.414508667311</v>
+      </c>
+      <c r="H239" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I239" t="n">
+        <v>931.2</v>
+      </c>
+      <c r="J239" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="K239" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="L239" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="M239" t="n">
+        <v>309.16</v>
+      </c>
+      <c r="N239" t="n">
+        <v>740.8200000000001</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P239" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>113</v>
+      </c>
+      <c r="G240" t="n">
+        <v>113.356</v>
+      </c>
+      <c r="H240" t="n">
+        <v>122</v>
+      </c>
+      <c r="I240" t="n">
+        <v>122</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>112.795</v>
+      </c>
+      <c r="M240" t="n">
+        <v>119.9665</v>
+      </c>
+      <c r="N240" t="n">
+        <v>122</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>0.00444</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.0126796954988496</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.411448799788078</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.01481</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>0.00577</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.01349</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P241" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>0.00444</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.0126796954988496</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.411448799788078</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.01481</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>0.00577</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.01349</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>0.1585</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.184068965517241</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>0.1085</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.28248</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.36694</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.1585</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.184068965517241</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>0.1085</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.28248</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.36694</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G245" t="n">
+        <v>4.6436</v>
+      </c>
+      <c r="H245" t="n">
+        <v>6.673</v>
+      </c>
+      <c r="I245" t="n">
+        <v>6.673</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>4.3225</v>
+      </c>
+      <c r="M245" t="n">
+        <v>6.00695</v>
+      </c>
+      <c r="N245" t="n">
+        <v>6.673</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.201254237288136</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.43615</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.30875</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.39494</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.201254237288136</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.43615</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.30875</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.39494</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P247" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.315862068965517</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.315862068965517</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P249" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.0287413793103448</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.03664</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.04644</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.0287413793103448</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.03664</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.04644</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="P251" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
